--- a/data_exploration/acl/tag_stats/tag_stats_fusional.xlsx
+++ b/data_exploration/acl/tag_stats/tag_stats_fusional.xlsx
@@ -84,10 +84,10 @@
     <t>_</t>
   </si>
   <si>
-    <t>SYM</t>
+    <t>O</t>
   </si>
   <si>
-    <t>O</t>
+    <t>SYM</t>
   </si>
   <si>
     <t>TRAIN</t>
@@ -856,25 +856,25 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>4249</v>
+        <v>69102</v>
       </c>
       <c r="M3" s="1">
-        <v>19.61952255621739</v>
+        <v>21.18068965517242</v>
       </c>
       <c r="N3" s="1">
-        <v>19.61952255621739</v>
+        <v>21.18068965517242</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>220437</v>
+        <v>285290</v>
       </c>
       <c r="R3" s="1">
-        <v>21.57673627356746</v>
+        <v>21.5112706270005</v>
       </c>
       <c r="S3" s="1">
-        <v>21.57673627356746</v>
+        <v>21.5112706270005</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -903,28 +903,28 @@
         <v>33.38455712287137</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>2843</v>
+        <v>38187</v>
       </c>
       <c r="M4" s="1">
-        <v>13.12739529944129</v>
+        <v>11.7048275862069</v>
       </c>
       <c r="N4" s="1">
-        <v>32.74691785565868</v>
+        <v>32.88551724137931</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>121417</v>
+        <v>155753</v>
       </c>
       <c r="R4" s="1">
-        <v>11.88449574312724</v>
+        <v>11.74399710458554</v>
       </c>
       <c r="S4" s="1">
-        <v>33.46123201669469</v>
+        <v>33.25526773158603</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -953,28 +953,28 @@
         <v>45.0879932897879</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>2771</v>
+        <v>37179</v>
       </c>
       <c r="M5" s="1">
-        <v>12.79493928060212</v>
+        <v>11.39586206896552</v>
       </c>
       <c r="N5" s="1">
-        <v>45.54185713626079</v>
+        <v>44.28137931034483</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
       </c>
       <c r="Q5">
-        <v>117677</v>
+        <v>152547</v>
       </c>
       <c r="R5" s="1">
-        <v>11.51841838922049</v>
+        <v>11.50226015751356</v>
       </c>
       <c r="S5" s="1">
-        <v>44.97965040591519</v>
+        <v>44.75752788909959</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1006,25 +1006,25 @@
         <v>6</v>
       </c>
       <c r="L6">
-        <v>2043</v>
+        <v>36913</v>
       </c>
       <c r="M6" s="1">
-        <v>9.433439534561574</v>
+        <v>11.31432950191571</v>
       </c>
       <c r="N6" s="1">
-        <v>54.97529667082237</v>
+        <v>55.59570881226054</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>116914</v>
+        <v>152330</v>
       </c>
       <c r="R6" s="1">
-        <v>11.4437346937577</v>
+        <v>11.48589804974232</v>
       </c>
       <c r="S6" s="1">
-        <v>56.42338509967288</v>
+        <v>56.24342593884191</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1053,28 +1053,28 @@
         <v>64.27594495372645</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>1988</v>
+        <v>26056</v>
       </c>
       <c r="M7" s="1">
-        <v>9.179480075726094</v>
+        <v>7.986513409961686</v>
       </c>
       <c r="N7" s="1">
-        <v>64.15477674654846</v>
+        <v>63.58222222222223</v>
       </c>
       <c r="P7" t="s">
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>80858</v>
+        <v>105515</v>
       </c>
       <c r="R7" s="1">
-        <v>7.914514086147594</v>
+        <v>7.955980651996065</v>
       </c>
       <c r="S7" s="1">
-        <v>64.33789918582048</v>
+        <v>64.19940659083798</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1103,28 +1103,28 @@
         <v>72.12194808974908</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>1399</v>
+        <v>25531</v>
       </c>
       <c r="M8" s="1">
-        <v>6.459805143833402</v>
+        <v>7.825593869731801</v>
       </c>
       <c r="N8" s="1">
-        <v>70.61458189038187</v>
+        <v>71.40781609195403</v>
       </c>
       <c r="P8" t="s">
         <v>9</v>
       </c>
       <c r="Q8">
-        <v>79187</v>
+        <v>102730</v>
       </c>
       <c r="R8" s="1">
-        <v>7.750953856634711</v>
+        <v>7.745987702028676</v>
       </c>
       <c r="S8" s="1">
-        <v>72.08885304245518</v>
+        <v>71.94539429286665</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1153,28 +1153,28 @@
         <v>77.59027019244913</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>1219</v>
+        <v>19666</v>
       </c>
       <c r="M9" s="1">
-        <v>5.628665096735467</v>
+        <v>6.027892720306514</v>
       </c>
       <c r="N9" s="1">
-        <v>76.24324698711733</v>
+        <v>77.43570881226054</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>59818</v>
+        <v>77631</v>
       </c>
       <c r="R9" s="1">
-        <v>5.85508426630855</v>
+        <v>5.853487504099952</v>
       </c>
       <c r="S9" s="1">
-        <v>77.94393730876374</v>
+        <v>77.79888179696661</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1203,28 +1203,28 @@
         <v>82.97627952540272</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>1185</v>
+        <v>19032</v>
       </c>
       <c r="M10" s="1">
-        <v>5.471671976728079</v>
+        <v>5.833563218390805</v>
       </c>
       <c r="N10" s="1">
-        <v>81.71491896384541</v>
+        <v>83.26927203065135</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
       </c>
       <c r="Q10">
-        <v>57234</v>
+        <v>75762</v>
       </c>
       <c r="R10" s="1">
-        <v>5.602158094518432</v>
+        <v>5.712562253295984</v>
       </c>
       <c r="S10" s="1">
-        <v>83.54609540328217</v>
+        <v>83.5114440502626</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1253,28 +1253,28 @@
         <v>87.41271873131922</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11">
-        <v>1138</v>
+        <v>14505</v>
       </c>
       <c r="M11" s="1">
-        <v>5.254652075541395</v>
+        <v>4.445977011494253</v>
       </c>
       <c r="N11" s="1">
-        <v>86.96957103938681</v>
+        <v>87.7152490421456</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
       </c>
       <c r="Q11">
-        <v>45536</v>
+        <v>59172</v>
       </c>
       <c r="R11" s="1">
-        <v>4.457138606282827</v>
+        <v>4.461652723687733</v>
       </c>
       <c r="S11" s="1">
-        <v>88.00323400956499</v>
+        <v>87.97309677395033</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1303,28 +1303,28 @@
         <v>91.05764084716427</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12">
-        <v>869</v>
+        <v>11755</v>
       </c>
       <c r="M12" s="1">
-        <v>4.012559449600591</v>
+        <v>3.603065134099617</v>
       </c>
       <c r="N12" s="1">
-        <v>90.98213048898739</v>
+        <v>91.31831417624522</v>
       </c>
       <c r="P12" t="s">
         <v>13</v>
       </c>
       <c r="Q12">
-        <v>36303</v>
+        <v>46873</v>
       </c>
       <c r="R12" s="1">
-        <v>3.553397374031216</v>
+        <v>3.534290680007691</v>
       </c>
       <c r="S12" s="1">
-        <v>91.55663138359621</v>
+        <v>91.50738745395802</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1356,25 +1356,25 @@
         <v>14</v>
       </c>
       <c r="L13">
-        <v>744</v>
+        <v>8840</v>
       </c>
       <c r="M13" s="1">
-        <v>3.435378861338136</v>
+        <v>2.709578544061303</v>
       </c>
       <c r="N13" s="1">
-        <v>94.41750935032553</v>
+        <v>94.02789272030653</v>
       </c>
       <c r="P13" t="s">
         <v>14</v>
       </c>
       <c r="Q13">
-        <v>28084</v>
+        <v>36180</v>
       </c>
       <c r="R13" s="1">
-        <v>2.748908130245233</v>
+        <v>2.728023314118539</v>
       </c>
       <c r="S13" s="1">
-        <v>94.30553951384144</v>
+        <v>94.23541076807656</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1406,25 +1406,25 @@
         <v>15</v>
       </c>
       <c r="L14">
-        <v>353</v>
+        <v>7183</v>
       </c>
       <c r="M14" s="1">
-        <v>1.629957981253174</v>
+        <v>2.201685823754789</v>
       </c>
       <c r="N14" s="1">
-        <v>96.0474673315787</v>
+        <v>96.22957854406131</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
       </c>
       <c r="Q14">
-        <v>23427</v>
+        <v>30257</v>
       </c>
       <c r="R14" s="1">
-        <v>2.293073307479528</v>
+        <v>2.281420713523621</v>
       </c>
       <c r="S14" s="1">
-        <v>96.59861282132097</v>
+        <v>96.51683148160018</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1453,28 +1453,28 @@
         <v>98.08521093038466</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L15">
-        <v>328</v>
+        <v>6180</v>
       </c>
       <c r="M15" s="1">
-        <v>1.514521863600683</v>
+        <v>1.894252873563218</v>
       </c>
       <c r="N15" s="1">
-        <v>97.56198919517938</v>
+        <v>98.12383141762453</v>
       </c>
       <c r="P15" t="s">
         <v>16</v>
       </c>
       <c r="Q15">
-        <v>15394</v>
+        <v>21538</v>
       </c>
       <c r="R15" s="1">
-        <v>1.506790049743452</v>
+        <v>1.623995747360008</v>
       </c>
       <c r="S15" s="1">
-        <v>98.10540287106443</v>
+        <v>98.14082722896019</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1503,28 +1503,28 @@
         <v>99.14088002679075</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16">
-        <v>325</v>
+        <v>3341</v>
       </c>
       <c r="M16" s="1">
-        <v>1.500669529482384</v>
+        <v>1.024061302681992</v>
       </c>
       <c r="N16" s="1">
-        <v>99.06265872466176</v>
+        <v>99.14789272030652</v>
       </c>
       <c r="P16" t="s">
         <v>17</v>
       </c>
       <c r="Q16">
-        <v>10285</v>
+        <v>13481</v>
       </c>
       <c r="R16" s="1">
-        <v>1.006712723243563</v>
+        <v>1.016486520111443</v>
       </c>
       <c r="S16" s="1">
-        <v>99.11211559430799</v>
+        <v>99.15731374907163</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1553,28 +1553,28 @@
         <v>99.99718321320258</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L17">
-        <v>145</v>
+        <v>2778</v>
       </c>
       <c r="M17" s="1">
-        <v>0.6695294823844485</v>
+        <v>0.8514942528735633</v>
       </c>
       <c r="N17" s="1">
-        <v>99.73218820704621</v>
+        <v>99.99938697318008</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
       </c>
       <c r="Q17">
-        <v>8705</v>
+        <v>11158</v>
       </c>
       <c r="R17" s="1">
-        <v>0.8520597234647754</v>
+        <v>0.8413290253989677</v>
       </c>
       <c r="S17" s="1">
-        <v>99.96417531777277</v>
+        <v>99.9986427744706</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1603,28 +1603,28 @@
         <v>99.99999999999999</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="M18" s="1">
-        <v>0.1662280094195872</v>
+        <v>0.0006130268199233716</v>
       </c>
       <c r="N18" s="1">
-        <v>99.89841621646579</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="R18" s="1">
-        <v>0.03210517970091285</v>
+        <v>0.001357225529412208</v>
       </c>
       <c r="S18" s="1">
-        <v>99.99628049747368</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1653,28 +1653,28 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0.1015837835341922</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0.002153396199451471</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>99.99843389367312</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1703,7 +1703,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1715,13 +1715,13 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.001566106326873797</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <v>100</v>
@@ -1908,25 +1908,25 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>4822</v>
+        <v>9533</v>
       </c>
       <c r="M3" s="1">
-        <v>20.3014482990906</v>
+        <v>18.05458229957766</v>
       </c>
       <c r="N3" s="1">
-        <v>20.3014482990906</v>
+        <v>18.05458229957766</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
-        <v>95961</v>
+        <v>100672</v>
       </c>
       <c r="R3" s="1">
-        <v>18.36901113499628</v>
+        <v>18.25567225671676</v>
       </c>
       <c r="S3" s="1">
-        <v>18.36901113499628</v>
+        <v>18.25567225671676</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1958,25 +1958,25 @@
         <v>6</v>
       </c>
       <c r="L4">
-        <v>3967</v>
+        <v>8332</v>
       </c>
       <c r="M4" s="1">
-        <v>16.7017514314584</v>
+        <v>15.78000416658776</v>
       </c>
       <c r="N4" s="1">
-        <v>37.00319973054901</v>
+        <v>33.83458646616542</v>
       </c>
       <c r="P4" t="s">
         <v>6</v>
       </c>
       <c r="Q4">
-        <v>83676</v>
+        <v>88041</v>
       </c>
       <c r="R4" s="1">
-        <v>16.01739639782775</v>
+        <v>15.9651903325016</v>
       </c>
       <c r="S4" s="1">
-        <v>34.38640753282402</v>
+        <v>34.22086258921836</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2008,25 +2008,25 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>3317</v>
+        <v>7058</v>
       </c>
       <c r="M5" s="1">
-        <v>13.96513977770293</v>
+        <v>13.36717107630537</v>
       </c>
       <c r="N5" s="1">
-        <v>50.96833950825194</v>
+        <v>47.20175754247079</v>
       </c>
       <c r="P5" t="s">
         <v>5</v>
       </c>
       <c r="Q5">
-        <v>69897</v>
+        <v>73638</v>
       </c>
       <c r="R5" s="1">
-        <v>13.37979774390466</v>
+        <v>13.35337724133929</v>
       </c>
       <c r="S5" s="1">
-        <v>47.76620527672868</v>
+        <v>47.57423983055765</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2058,25 +2058,25 @@
         <v>7</v>
       </c>
       <c r="L6">
-        <v>2291</v>
+        <v>6314</v>
       </c>
       <c r="M6" s="1">
-        <v>9.645503536544291</v>
+        <v>11.95810685403686</v>
       </c>
       <c r="N6" s="1">
-        <v>60.61384304479623</v>
+        <v>59.15986439650765</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>61484</v>
+        <v>65507</v>
       </c>
       <c r="R6" s="1">
-        <v>11.76936756207325</v>
+        <v>11.87891690361516</v>
       </c>
       <c r="S6" s="1">
-        <v>59.53557283880193</v>
+        <v>59.45315673417281</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2108,25 +2108,25 @@
         <v>9</v>
       </c>
       <c r="L7">
-        <v>2143</v>
+        <v>4543</v>
       </c>
       <c r="M7" s="1">
-        <v>9.022398113843044</v>
+        <v>8.604003712050908</v>
       </c>
       <c r="N7" s="1">
-        <v>69.63624115863927</v>
+        <v>67.76386810855855</v>
       </c>
       <c r="P7" t="s">
         <v>9</v>
       </c>
       <c r="Q7">
-        <v>44787</v>
+        <v>47187</v>
       </c>
       <c r="R7" s="1">
-        <v>8.573200588812938</v>
+        <v>8.55680235594499</v>
       </c>
       <c r="S7" s="1">
-        <v>68.10877342761486</v>
+        <v>68.0099590901178</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2155,28 +2155,28 @@
         <v>75.92123555064653</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>1474</v>
+        <v>4101</v>
       </c>
       <c r="M8" s="1">
-        <v>6.205793196362412</v>
+        <v>7.766898354197838</v>
       </c>
       <c r="N8" s="1">
-        <v>75.84203435500167</v>
+        <v>75.53076646275639</v>
       </c>
       <c r="P8" t="s">
         <v>10</v>
       </c>
       <c r="Q8">
-        <v>39680</v>
+        <v>42547</v>
       </c>
       <c r="R8" s="1">
-        <v>7.595610319157285</v>
+        <v>7.715393431207566</v>
       </c>
       <c r="S8" s="1">
-        <v>75.70438374677215</v>
+        <v>75.72535252132536</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2205,28 +2205,28 @@
         <v>82.66268020033897</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>1234</v>
+        <v>3468</v>
       </c>
       <c r="M9" s="1">
-        <v>5.195351970360391</v>
+        <v>6.568057423154865</v>
       </c>
       <c r="N9" s="1">
-        <v>81.03738632536206</v>
+        <v>82.09882388591126</v>
       </c>
       <c r="P9" t="s">
         <v>8</v>
       </c>
       <c r="Q9">
-        <v>34466</v>
+        <v>36460</v>
       </c>
       <c r="R9" s="1">
-        <v>6.597537934981728</v>
+        <v>6.611588231880694</v>
       </c>
       <c r="S9" s="1">
-        <v>82.30192168175388</v>
+        <v>82.33694075320605</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2258,25 +2258,25 @@
         <v>13</v>
       </c>
       <c r="L10">
-        <v>1058</v>
+        <v>2484</v>
       </c>
       <c r="M10" s="1">
-        <v>4.454361737958909</v>
+        <v>4.704456354993276</v>
       </c>
       <c r="N10" s="1">
-        <v>85.49174806332097</v>
+        <v>86.80328024090454</v>
       </c>
       <c r="P10" t="s">
         <v>13</v>
       </c>
       <c r="Q10">
-        <v>24496</v>
+        <v>25922</v>
       </c>
       <c r="R10" s="1">
-        <v>4.689064273641049</v>
+        <v>4.700647014449022</v>
       </c>
       <c r="S10" s="1">
-        <v>86.99098595539493</v>
+        <v>87.03758776765507</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2308,25 +2308,25 @@
         <v>11</v>
       </c>
       <c r="L11">
-        <v>909</v>
+        <v>1710</v>
       </c>
       <c r="M11" s="1">
-        <v>3.827046143482654</v>
+        <v>3.238575026988125</v>
       </c>
       <c r="N11" s="1">
-        <v>89.31879420680363</v>
+        <v>90.04185526789267</v>
       </c>
       <c r="P11" t="s">
         <v>11</v>
       </c>
       <c r="Q11">
-        <v>17016</v>
+        <v>17817</v>
       </c>
       <c r="R11" s="1">
-        <v>3.257230473557973</v>
+        <v>3.230901468113503</v>
       </c>
       <c r="S11" s="1">
-        <v>90.2482164289529</v>
+        <v>90.26848923576857</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2355,28 +2355,28 @@
         <v>93.23189426977204</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12">
-        <v>756</v>
+        <v>1439</v>
       </c>
       <c r="M12" s="1">
-        <v>3.182889861906366</v>
+        <v>2.725327171833867</v>
       </c>
       <c r="N12" s="1">
-        <v>92.50168406870999</v>
+        <v>92.76718243972654</v>
       </c>
       <c r="P12" t="s">
         <v>14</v>
       </c>
       <c r="Q12">
-        <v>14261</v>
+        <v>15118</v>
       </c>
       <c r="R12" s="1">
-        <v>2.729863880078177</v>
+        <v>2.741469854349214</v>
       </c>
       <c r="S12" s="1">
-        <v>92.97808030903107</v>
+        <v>93.00995909011779</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2405,28 +2405,28 @@
         <v>95.70756603378339</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13">
-        <v>582</v>
+        <v>1396</v>
       </c>
       <c r="M13" s="1">
-        <v>2.450319973054901</v>
+        <v>2.643889320278025</v>
       </c>
       <c r="N13" s="1">
-        <v>94.95200404176489</v>
+        <v>95.41107176000456</v>
       </c>
       <c r="P13" t="s">
         <v>12</v>
       </c>
       <c r="Q13">
-        <v>13956</v>
+        <v>14596</v>
       </c>
       <c r="R13" s="1">
-        <v>2.671480282614896</v>
+        <v>2.646811350316254</v>
       </c>
       <c r="S13" s="1">
-        <v>95.64956059164597</v>
+        <v>95.65677044043404</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2455,28 +2455,28 @@
         <v>97.87092228295023</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14">
-        <v>465</v>
+        <v>1210</v>
       </c>
       <c r="M14" s="1">
-        <v>1.957729875378916</v>
+        <v>2.291623264710895</v>
       </c>
       <c r="N14" s="1">
-        <v>96.90973391714381</v>
+        <v>97.70269502471545</v>
       </c>
       <c r="P14" t="s">
         <v>18</v>
       </c>
       <c r="Q14">
-        <v>11533</v>
+        <v>12485</v>
       </c>
       <c r="R14" s="1">
-        <v>2.207665670636113</v>
+        <v>2.264006557186793</v>
       </c>
       <c r="S14" s="1">
-        <v>97.85722626228208</v>
+        <v>97.92077699762083</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2508,25 +2508,25 @@
         <v>15</v>
       </c>
       <c r="L15">
-        <v>435</v>
+        <v>958</v>
       </c>
       <c r="M15" s="1">
-        <v>1.831424722128663</v>
+        <v>1.814359576523172</v>
       </c>
       <c r="N15" s="1">
-        <v>98.74115863927247</v>
+        <v>99.51705460123863</v>
       </c>
       <c r="P15" t="s">
         <v>15</v>
       </c>
       <c r="Q15">
-        <v>8239</v>
+        <v>8762</v>
       </c>
       <c r="R15" s="1">
-        <v>1.577122818032683</v>
+        <v>1.58888469796321</v>
       </c>
       <c r="S15" s="1">
-        <v>99.43434908031476</v>
+        <v>99.50966169558404</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2555,33 +2555,33 @@
         <v>99.87050332311325</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L16">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="M16" s="1">
-        <v>1.086224317952172</v>
+        <v>0.3484782485180205</v>
       </c>
       <c r="N16" s="1">
-        <v>99.82738295722464</v>
+        <v>99.86553284975665</v>
       </c>
       <c r="P16" t="s">
         <v>20</v>
       </c>
       <c r="Q16">
-        <v>2168</v>
+        <v>1887</v>
       </c>
       <c r="R16" s="1">
-        <v>0.4150020960668598</v>
+        <v>0.3421850519352405</v>
       </c>
       <c r="S16" s="1">
-        <v>99.84935117638162</v>
+        <v>99.85184674751929</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>405</v>
@@ -2593,7 +2593,7 @@
         <v>99.93880899440538</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>44</v>
@@ -2605,28 +2605,28 @@
         <v>99.95429529051056</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M17" s="1">
-        <v>0.08841360727517683</v>
+        <v>0.07007443040851498</v>
       </c>
       <c r="N17" s="1">
-        <v>99.91579656449981</v>
+        <v>99.93560728016516</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q17">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="R17" s="1">
-        <v>0.08996816658276019</v>
+        <v>0.08813033134103174</v>
       </c>
       <c r="S17" s="1">
-        <v>99.93931934296438</v>
+        <v>99.93997707886032</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2655,28 +2655,28 @@
         <v>99.98095637104606</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18" s="1">
-        <v>0.0842034355001684</v>
+        <v>0.03409026344198026</v>
       </c>
       <c r="N18" s="1">
-        <v>99.99999999999999</v>
+        <v>99.96969754360714</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
       </c>
       <c r="Q18">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="R18" s="1">
-        <v>0.03062746096434389</v>
+        <v>0.03191551093831602</v>
       </c>
       <c r="S18" s="1">
-        <v>99.96994680392872</v>
+        <v>99.97189258979864</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2708,10 +2708,10 @@
         <v>19</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>0.03030245639287135</v>
       </c>
       <c r="N19" s="1">
         <v>100</v>
@@ -2720,13 +2720,13 @@
         <v>17</v>
       </c>
       <c r="Q19">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="R19" s="1">
-        <v>0.02603334181969231</v>
+        <v>0.02792607207102652</v>
       </c>
       <c r="S19" s="1">
-        <v>99.99598014574842</v>
+        <v>99.99981866186967</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2743,7 +2743,7 @@
         <v>99.99999999999999</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2770,18 +2770,18 @@
         <v>16</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
-        <v>0.004019854251570136</v>
+        <v>0.000181338130331341</v>
       </c>
       <c r="S20" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +3695,7 @@
         <v>99.99751784052127</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18">
         <v>7</v>
@@ -3707,7 +3707,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -3745,7 +3745,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19">
         <v>23</v>
@@ -3795,7 +3795,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>63</v>
@@ -4797,7 +4797,7 @@
         <v>99.99999999999997</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -4809,7 +4809,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19">
         <v>11</v>
@@ -4821,7 +4821,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19">
         <v>81</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5849,7 +5849,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5861,7 +5861,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5973,7 +5973,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -6097,19 +6097,19 @@
         <v>4</v>
       </c>
       <c r="J3" s="1">
-        <v>20.8925063943646</v>
+        <v>20.75536661425302</v>
       </c>
       <c r="K3" s="1">
-        <v>20.8925063943646</v>
+        <v>20.75536661425302</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="1">
-        <v>19.93176371849709</v>
+        <v>19.89600281352779</v>
       </c>
       <c r="O3" s="1">
-        <v>19.93176371849709</v>
+        <v>19.89600281352779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6135,19 +6135,19 @@
         <v>7</v>
       </c>
       <c r="J4" s="1">
-        <v>11.59869171937868</v>
+        <v>11.84319004399815</v>
       </c>
       <c r="K4" s="1">
-        <v>32.49119811374328</v>
+        <v>32.59855665825117</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="1">
-        <v>12.57581478340628</v>
+        <v>12.60615732291158</v>
       </c>
       <c r="O4" s="1">
-        <v>32.50757850190337</v>
+        <v>32.50216013643937</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6173,19 +6173,19 @@
         <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>11.02764421801708</v>
+        <v>11.21947275851377</v>
       </c>
       <c r="K5" s="1">
-        <v>43.51884233176035</v>
+        <v>43.81802941676494</v>
       </c>
       <c r="M5" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="1">
-        <v>11.08168492917162</v>
+        <v>11.068012069765</v>
       </c>
       <c r="O5" s="1">
-        <v>43.58926343107498</v>
+        <v>43.57017220620438</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6211,19 +6211,19 @@
         <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>10.54609087336027</v>
+        <v>10.08019048698561</v>
       </c>
       <c r="K6" s="1">
-        <v>54.06493320512062</v>
+        <v>53.89821990375055</v>
       </c>
       <c r="M6" t="s">
         <v>5</v>
       </c>
       <c r="N6" s="1">
-        <v>10.34707721387767</v>
+        <v>10.31369338565626</v>
       </c>
       <c r="O6" s="1">
-        <v>53.93634064495265</v>
+        <v>53.88386559186063</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -6249,19 +6249,19 @@
         <v>9</v>
       </c>
       <c r="J7" s="1">
-        <v>9.449294367911387</v>
+        <v>9.094838246354099</v>
       </c>
       <c r="K7" s="1">
-        <v>63.51422757303201</v>
+        <v>62.99305815010465</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="1">
-        <v>9.870447366325065</v>
+        <v>9.86617448883027</v>
       </c>
       <c r="O7" s="1">
-        <v>63.80678801127772</v>
+        <v>63.7500400806909</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6287,19 +6287,19 @@
         <v>8</v>
       </c>
       <c r="J8" s="1">
-        <v>8.36609732116958</v>
+        <v>8.743891819753724</v>
       </c>
       <c r="K8" s="1">
-        <v>71.88032489420159</v>
+        <v>71.73694996985837</v>
       </c>
       <c r="M8" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="1">
-        <v>7.928925266254164</v>
+        <v>7.940028638803652</v>
       </c>
       <c r="O8" s="1">
-        <v>71.73571327753189</v>
+        <v>71.69006871949455</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -6325,19 +6325,19 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <v>5.312105589700242</v>
+        <v>5.867394490798799</v>
       </c>
       <c r="K9" s="1">
-        <v>77.19243048390183</v>
+        <v>77.60434446065717</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="1">
-        <v>5.426432131197553</v>
+        <v>5.424927340554442</v>
       </c>
       <c r="O9" s="1">
-        <v>77.16214540872944</v>
+        <v>77.11499606004899</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -6363,19 +6363,19 @@
         <v>13</v>
       </c>
       <c r="J10" s="1">
-        <v>5.121251540218624</v>
+        <v>4.797549095099805</v>
       </c>
       <c r="K10" s="1">
-        <v>82.31368202412045</v>
+        <v>82.40189355575698</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" s="1">
-        <v>5.334613303876873</v>
+        <v>5.358250573845209</v>
       </c>
       <c r="O10" s="1">
-        <v>82.49675871260632</v>
+        <v>82.47324663389421</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -6401,19 +6401,19 @@
         <v>11</v>
       </c>
       <c r="J11" s="1">
-        <v>3.980473466558192</v>
+        <v>4.017427372212309</v>
       </c>
       <c r="K11" s="1">
-        <v>86.29415549067865</v>
+        <v>86.4193209279693</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="1">
-        <v>4.162921675561178</v>
+        <v>4.15889071258243</v>
       </c>
       <c r="O11" s="1">
-        <v>86.6596803881675</v>
+        <v>86.63213734647664</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -6439,19 +6439,19 @@
         <v>12</v>
       </c>
       <c r="J12" s="1">
-        <v>3.977415712342613</v>
+        <v>3.956299116395677</v>
       </c>
       <c r="K12" s="1">
-        <v>90.27157120302127</v>
+        <v>90.37562004436498</v>
       </c>
       <c r="M12" t="s">
         <v>11</v>
       </c>
       <c r="N12" s="1">
-        <v>4.103202407201733</v>
+        <v>4.12001743786835</v>
       </c>
       <c r="O12" s="1">
-        <v>90.76288279536924</v>
+        <v>90.752154784345</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6477,19 +6477,19 @@
         <v>14</v>
       </c>
       <c r="J13" s="1">
-        <v>3.197492845702339</v>
+        <v>3.107334222002765</v>
       </c>
       <c r="K13" s="1">
-        <v>93.46906404872361</v>
+        <v>93.48295426636774</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
       </c>
       <c r="N13" s="1">
-        <v>3.057129605965683</v>
+        <v>3.055273837594551</v>
       </c>
       <c r="O13" s="1">
-        <v>93.82001240133492</v>
+        <v>93.80742862193955</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -6515,19 +6515,19 @@
         <v>15</v>
       </c>
       <c r="J14" s="1">
-        <v>1.945332869626981</v>
+        <v>2.056265409006206</v>
       </c>
       <c r="K14" s="1">
-        <v>95.41439691835059</v>
+        <v>95.53921967537394</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
       </c>
       <c r="N14" s="1">
-        <v>2.006865224742472</v>
+        <v>2.015987262439446</v>
       </c>
       <c r="O14" s="1">
-        <v>95.82687762607739</v>
+        <v>95.823415884379</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -6553,19 +6553,19 @@
         <v>18</v>
       </c>
       <c r="J15" s="1">
-        <v>1.837534735480381</v>
+        <v>1.948779469510361</v>
       </c>
       <c r="K15" s="1">
-        <v>97.25193165383097</v>
+        <v>97.4879991448843</v>
       </c>
       <c r="M15" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="1">
-        <v>1.627175786856807</v>
+        <v>1.627197644051731</v>
       </c>
       <c r="O15" s="1">
-        <v>97.4540534129342</v>
+        <v>97.45061352843074</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -6588,22 +6588,22 @@
         <v>98.34080592119706</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1">
-        <v>1.152241961053565</v>
+        <v>1.053556578373923</v>
       </c>
       <c r="K16" s="1">
-        <v>98.40417361488453</v>
+        <v>98.54155572325823</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="1">
-        <v>1.140215099710252</v>
+        <v>1.142548405134095</v>
       </c>
       <c r="O16" s="1">
-        <v>98.59426851264445</v>
+        <v>98.59316193356483</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -6626,22 +6626,22 @@
         <v>99.30840496448778</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1">
-        <v>0.9758321616260182</v>
+        <v>0.8672418987238608</v>
       </c>
       <c r="K17" s="1">
-        <v>99.38000577651054</v>
+        <v>99.40879762198209</v>
       </c>
       <c r="M17" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="1">
-        <v>0.7417048682542199</v>
+        <v>0.7643783045532833</v>
       </c>
       <c r="O17" s="1">
-        <v>99.33597338089866</v>
+        <v>99.35754023811812</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -6664,22 +6664,22 @@
         <v>99.94079694190359</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1">
-        <v>0.5384776129951683</v>
+        <v>0.5274872629612493</v>
       </c>
       <c r="K18" s="1">
-        <v>99.91848338950571</v>
+        <v>99.93628488494333</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
       <c r="N18" s="1">
-        <v>0.6017930166888261</v>
+        <v>0.5808085719223197</v>
       </c>
       <c r="O18" s="1">
-        <v>99.9377663975875</v>
+        <v>99.93834881004044</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -6693,7 +6693,7 @@
         <v>99.97572124164735</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1">
         <v>0.03558381390237466</v>
@@ -6702,27 +6702,27 @@
         <v>99.97638075580596</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1">
-        <v>0.0668333027455064</v>
+        <v>0.04284871066533561</v>
       </c>
       <c r="K19" s="1">
-        <v>99.98531669225122</v>
+        <v>99.97913359560867</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="1">
-        <v>0.03332781171683473</v>
+        <v>0.03354364555213683</v>
       </c>
       <c r="O19" s="1">
-        <v>99.97109420930433</v>
+        <v>99.97189245559258</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>0.02427875835266607</v>
@@ -6743,16 +6743,16 @@
         <v>19</v>
       </c>
       <c r="J20" s="1">
-        <v>0.01468330774878195</v>
+        <v>0.0208664043913409</v>
       </c>
       <c r="K20" s="1">
         <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20" s="1">
-        <v>0.02890579069568965</v>
+        <v>0.02810754440745367</v>
       </c>
       <c r="O20" s="1">
         <v>100</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -6778,7 +6778,7 @@
         <v>99.99999999999997</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>

--- a/data_exploration/acl/tag_stats/tag_stats_fusional.xlsx
+++ b/data_exploration/acl/tag_stats/tag_stats_fusional.xlsx
@@ -81,13 +81,13 @@
     <t>INTJ</t>
   </si>
   <si>
-    <t>_</t>
+    <t>SYM</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>SYM</t>
+    <t>_</t>
   </si>
   <si>
     <t>TRAIN</t>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1528</v>
@@ -2543,7 +2543,7 @@
         <v>99.84803112896283</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>175</v>
@@ -2555,7 +2555,7 @@
         <v>99.87050332311325</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L16">
         <v>184</v>
@@ -2567,7 +2567,7 @@
         <v>99.86553284975665</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q16">
         <v>1887</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>405</v>
@@ -2593,7 +2593,7 @@
         <v>99.93880899440538</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>44</v>
@@ -2605,7 +2605,7 @@
         <v>99.95429529051056</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17">
         <v>37</v>
@@ -2617,7 +2617,7 @@
         <v>99.93560728016516</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q17">
         <v>486</v>
@@ -3695,7 +3695,7 @@
         <v>99.99751784052127</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>7</v>
@@ -3707,7 +3707,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -3745,7 +3745,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q19">
         <v>23</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>63</v>
@@ -4797,7 +4797,7 @@
         <v>99.99999999999997</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -4809,7 +4809,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>11</v>
@@ -4821,7 +4821,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q19">
         <v>81</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4859,7 +4859,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1114</v>
@@ -5599,7 +5599,7 @@
         <v>94.71224677716391</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>304</v>
@@ -5611,7 +5611,7 @@
         <v>95.05908625662975</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14">
         <v>250</v>
@@ -5623,7 +5623,7 @@
         <v>94.89104559604468</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14">
         <v>1668</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5849,7 +5849,7 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5861,7 +5861,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5911,7 +5911,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5961,7 +5961,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>0.5813894077885944</v>
@@ -6655,7 +6655,7 @@
         <v>99.93871404017524</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
         <v>0.6323919774158118</v>
@@ -6664,7 +6664,7 @@
         <v>99.94079694190359</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1">
         <v>0.5274872629612493</v>
@@ -6673,7 +6673,7 @@
         <v>99.93628488494333</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N18" s="1">
         <v>0.5808085719223197</v>
@@ -6693,7 +6693,7 @@
         <v>99.97572124164735</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1">
         <v>0.03558381390237466</v>
@@ -6702,7 +6702,7 @@
         <v>99.97638075580596</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1">
         <v>0.04284871066533561</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>0.02427875835266607</v>
@@ -6749,7 +6749,7 @@
         <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N20" s="1">
         <v>0.02810754440745367</v>
